--- a/assets/downloads/Algoritmos lineales PD1.xlsx
+++ b/assets/downloads/Algoritmos lineales PD1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Federico\Documents\GitHub\Machine-Learning-Portfolio\ut3\PDs\UT3-TA1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Federico\Documents\GitHub\Machine-Learning-Portfolio\web\src\assets\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E279E19B-B402-45D1-BF9F-3B518AD59CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B9CA80-DDA1-48EE-A446-1A6B1793C1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{1FF1BBC3-D289-4B94-BAFE-9A492678760C}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>X</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1003,6 +1006,864 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.5025371828521417E-2"/>
+          <c:y val="5.7870370370370371E-2"/>
+          <c:w val="0.9091968503937008"/>
+          <c:h val="0.86806223874793431"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ej1'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ej1'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ej1'!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D3FA-45A0-A632-0AC3CA237296}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="802094351"/>
+        <c:axId val="802091855"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:v>pred Y</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'ej1'!$B$21:$B$100</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="80"/>
+                      <c:pt idx="0">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.1000000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.3</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1.4</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1.5</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1.6</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1.7</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1.8</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1.9</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>2.1</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>2.2000000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>2.2999999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>2.4</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>2.5</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>2.6</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>2.7</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>2.8</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>2.9</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>3.1</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>3.2</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>3.3</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>3.4</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>3.5</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>3.6</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>3.7</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>3.8</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>3.9</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>4.0999999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>4.2</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>4.3</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>4.4000000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>4.5</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>4.5999999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>4.7</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>4.8</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>4.9000000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>5.0999999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>5.2</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>5.3</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>5.4</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>5.5</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>5.6</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>5.7</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>5.8</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>5.9</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>6.1</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>6.2</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>6.3</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>6.4</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>6.5</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>6.6</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>6.7</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>6.8</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>6.9</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>7.1</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>7.2</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>7.3</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>7.4</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>7.5</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>7.6</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>7.7</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>7.8</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>7.9</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>7.9</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>8</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'ej1'!$C$21:$C$100</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="80"/>
+                      <c:pt idx="0">
+                        <c:v>1.5695238095238093</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.6038095238095238</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.638095238095238</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.6723809523809523</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.7066666666666666</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.7409523809523808</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.7752380952380951</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.8095238095238093</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.8438095238095238</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.878095238095238</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.9123809523809523</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1.9466666666666665</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1.9809523809523808</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2.0152380952380953</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2.0495238095238095</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2.0838095238095238</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2.118095238095238</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>2.1523809523809523</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>2.1866666666666665</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>2.2209523809523808</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>2.255238095238095</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>2.2895238095238093</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>2.3238095238095235</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>2.3580952380952382</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>2.3923809523809525</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>2.4266666666666667</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>2.4609523809523806</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>2.4952380952380953</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>2.5295238095238095</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>2.5638095238095238</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>2.598095238095238</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>2.6323809523809523</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>2.6666666666666665</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>2.7009523809523808</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>2.7352380952380955</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>2.7695238095238093</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>2.803809523809524</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>2.8380952380952378</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>2.8723809523809525</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>2.9066666666666667</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>2.940952380952381</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>2.9752380952380952</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>3.0095238095238095</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>3.0438095238095233</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>3.078095238095238</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>3.1123809523809522</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>3.1466666666666665</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>3.1809523809523812</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>3.215238095238095</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>3.2495238095238097</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>3.2838095238095235</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>3.3180952380952382</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>3.352380952380952</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>3.3866666666666667</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>3.420952380952381</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>3.4552380952380952</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>3.4895238095238099</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>3.5238095238095237</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>3.5580952380952375</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>3.5923809523809522</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>3.6266666666666669</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>3.6609523809523807</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>3.6952380952380954</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>3.7295238095238092</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>3.7638095238095239</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>3.7980952380952377</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>3.8323809523809524</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>3.8666666666666663</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>3.9009523809523809</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>3.9352380952380956</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>3.9695238095238095</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>4.0038095238095242</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>4.038095238095238</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>4.0723809523809518</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>4.1066666666666665</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>4.1409523809523812</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>4.175238095238095</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>4.2095238095238097</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>4.175238095238095</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>4.2095238095238097</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-D3FA-45A0-A632-0AC3CA237296}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="802094351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-UY"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="802091855"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="802091855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-UY"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="802094351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-UY"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1323,6 +2184,854 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ej1'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ej1'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ej1'!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B6BF-429A-A59E-3F9E8973582D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>pred Y</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ej2'!$R$3:$R$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="83"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ej2'!$S$3:$S$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="83"/>
+                <c:pt idx="0">
+                  <c:v>0.21781190112168286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28163163686917714</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34545137261667136</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40927110836416569</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47309084411165991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.53691057985915425</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60073031560664847</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.66455005135414269</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.72836978710163702</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79218952284913136</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.85600925859662547</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9198289943441198</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.98364873009161413</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0474684658391082</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1112882015866026</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1751079373340969</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.238927673081591</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3027474088290854</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3665671445765797</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4303868803240738</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.4942066160715681</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.5580263518190625</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.6218460875665568</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.6856658233140509</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.7494855590615452</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.8133052948090396</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.8771250305565337</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.940944766304028</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.0047645020515223</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.0685842377990165</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.132403973546511</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.1962237092940051</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.2600434450414992</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.3238631807889933</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.3876829165364879</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.451502652283982</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.5153223880314766</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.5791421237789707</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.6429618595264648</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.7067815952739593</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.7706013310214535</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.8344210667689476</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.8982408025164421</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.9620605382639362</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.0258802740114308</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.0897000097589249</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.153519745506419</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.2173394812539136</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.2811592170014077</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.3449789527489022</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.4087986884963963</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.47261842424389</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.5364381599913846</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.6002578957388787</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.6640776314863732</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.7278973672338673</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.7917171029813614</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.855536838728856</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.9193565744763501</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.9831763102238447</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.0469960459713388</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.1108157817188333</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.1746355174663279</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.2384552532138215</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.3022749889613161</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.3660947247088107</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.4299144604563043</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.4937341962037989</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.5575539319512934</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.621373667698788</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.6851934034462817</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.7490131391937762</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.8128328749412708</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.8766526106887644</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.940472346436259</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.0042920821837535</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.0681118179312472</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.1319315536787418</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.1957512894262363</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.2595710251737309</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.3233907609212245</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.2595710251737309</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.3233907609212245</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B6BF-429A-A59E-3F9E8973582D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="802094351"/>
+        <c:axId val="802091855"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="802094351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-UY"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="802091855"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="802091855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-UY"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="802094351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-UY"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1403,6 +3112,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1920,7 +3709,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1947,8 +3736,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2028,6 +3817,522 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="phClr"/>
@@ -2435,20 +4740,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>445770</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>598170</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>41910</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>194310</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2468,6 +5289,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC6E3B49-B7B9-4865-AE1B-600A7EC1464E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2509,6 +5368,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>98612</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>82476</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{129CED8F-F8BC-4CAF-8F92-1F7BF34D6942}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2814,19 +5711,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D6A4B9-397A-40DD-ADAD-6C226ED341BF}">
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:L100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99:XFD99"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="8.44140625" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2846,7 +5744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2870,7 +5768,7 @@
         <v>1.1012258681571245</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -2886,11 +5784,11 @@
         <v>-0.66666666666666652</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
+        <f>$B$13+$B$14*A3</f>
         <v>2.4952380952380953</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2906,11 +5804,11 @@
         <v>0.33333333333333348</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f>$B$13+$B$14*A4</f>
         <v>2.1523809523809523</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2929,8 +5827,9 @@
         <f t="shared" si="0"/>
         <v>2.8380952380952378</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -2949,8 +5848,9 @@
         <f t="shared" si="0"/>
         <v>3.5238095238095237</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2969,8 +5869,12 @@
         <f t="shared" si="0"/>
         <v>3.1809523809523812</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -2978,8 +5882,9 @@
         <f>AVERAGE(A2:A7)</f>
         <v>3.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -2987,17 +5892,19 @@
         <f>AVERAGE(B2:B7)</f>
         <v>2.6666666666666665</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="C12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -3010,7 +5917,7 @@
         <v>1.4666666666666663</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -3019,7 +5926,7 @@
         <v>0.34285714285714286</v>
       </c>
       <c r="C14">
-        <f>PEARSON(A2:A7,B2:B7)*STDEV(B2:B7)/STDEV(A2:A7)</f>
+        <f>PEARSON(A2:A7,B2:B7)*STDEV(B2:'ej1'!B7)/STDEV(A2:A7)</f>
         <v>0.34285714285714292</v>
       </c>
     </row>
@@ -3786,18 +6693,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{110D3D34-C80E-484A-AA61-1DEEBCFCEA01}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:X85"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD10" sqref="AD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="7" width="8.88671875" style="1"/>
+    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3823,7 +6731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3848,15 +6756,18 @@
         <v>14</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H7" si="0">$C$25+$D$25*A2</f>
-        <v>0.72699293604227921</v>
+        <f>$C$26+$D$26*A2</f>
+        <v>0.85600925859662547</v>
       </c>
       <c r="I2" cm="1">
         <f t="array" ref="I2">SQRT(SUMSQ(B2:B7-H2:H7)/6)</f>
-        <v>1.3005077099450286</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.2302043215245215</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -3876,18 +6787,25 @@
         <v>0.04</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F25" si="1">E3-B3</f>
+        <f t="shared" ref="F3:F25" si="0">E3-B3</f>
         <v>-1.96</v>
       </c>
       <c r="G3" s="1">
         <v>0.01</v>
       </c>
       <c r="H3">
-        <f t="shared" si="0"/>
-        <v>1.7883604467349206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" ref="H3:H7" si="1">$C$26+$D$26*A3</f>
+        <v>2.132403973546511</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f>$C$26+$D$26*R3</f>
+        <v>0.21781190112168286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3911,11 +6829,18 @@
         <v>-2.8327999999999998</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
-        <v>1.2576766913885999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1.4942066160715681</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="S4">
+        <f t="shared" ref="S4:S67" si="4">$C$26+$D$26*R4</f>
+        <v>0.28163163686917714</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3923,7 +6848,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C26" si="4">C4-$G$3*F4</f>
+        <f t="shared" ref="C5:C26" si="5">C4-$G$3*F4</f>
         <v>5.7928E-2</v>
       </c>
       <c r="D5" s="1">
@@ -3939,11 +6864,18 @@
         <v>-2.440248</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
-        <v>2.3190442020812414</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>2.7706013310214535</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="4"/>
+        <v>0.34545137261667136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -3951,7 +6883,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.2330479999999998E-2</v>
       </c>
       <c r="D6" s="1">
@@ -3963,15 +6895,22 @@
         <v>1.4207260000000002</v>
       </c>
       <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.57927399999999984</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="1"/>
-        <v>-0.57927399999999984</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>3.3804117127738826</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4.0469960459713388</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="4"/>
+        <v>0.40927110836416569</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3979,7 +6918,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.8123220000000002E-2</v>
       </c>
       <c r="D7" s="1">
@@ -3991,15 +6930,24 @@
         <v>1.3772350200000001</v>
       </c>
       <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.6227649799999999</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="1"/>
-        <v>-3.6227649799999999</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>2.8497279574275622</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3.4087986884963963</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="4"/>
+        <v>0.47309084411165991</v>
+      </c>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -4019,11 +6967,20 @@
         <v>0.56331147879999999</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.43668852120000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="R8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="4"/>
+        <v>0.53691057985915425</v>
+      </c>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -4031,7 +6988,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.128717755012</v>
       </c>
       <c r="D9" s="1">
@@ -4043,11 +7000,20 @@
         <v>1.4587002376480001</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.54129976235199995</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="R9" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="4"/>
+        <v>0.60073031560664847</v>
+      </c>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -4055,7 +7021,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.13413075263551999</v>
       </c>
       <c r="D10" s="1">
@@ -4067,11 +7033,20 @@
         <v>1.05326372680064</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1.94673627319936</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="R10" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="4"/>
+        <v>0.66455005135414269</v>
+      </c>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>4</v>
       </c>
@@ -4079,7 +7054,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.15359811536751358</v>
       </c>
       <c r="D11" s="1">
@@ -4091,11 +7066,20 @@
         <v>2.1476029655537023</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.85239703444629766</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="R11" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="4"/>
+        <v>0.72836978710163702</v>
+      </c>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>6</v>
       </c>
@@ -4103,7 +7087,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.16212208571197656</v>
       </c>
       <c r="D12" s="1">
@@ -4115,11 +7099,20 @@
         <v>3.3577046492583715</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.3577046492583715</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="R12" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="4"/>
+        <v>0.79218952284913136</v>
+      </c>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>5</v>
       </c>
@@ -4127,7 +7120,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.14854503921939285</v>
       </c>
       <c r="D13" s="1">
@@ -4139,11 +7132,20 @@
         <v>2.4042191140638773</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.5957808859361227</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="R13" s="1">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="4"/>
+        <v>0.85600925859662547</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -4163,11 +7165,18 @@
         <v>0.75542670734445705</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.24457329265554295</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="R14" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="4"/>
+        <v>0.9198289943441198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>3</v>
       </c>
@@ -4175,7 +7184,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1769485810053095</v>
       </c>
       <c r="D15" s="1">
@@ -4187,11 +7196,18 @@
         <v>1.9270573575820849</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-7.2942642417915149E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="R15" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="4"/>
+        <v>0.98364873009161413</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -4199,7 +7215,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.17767800742948864</v>
       </c>
       <c r="D16" s="1">
@@ -4211,11 +7227,21 @@
         <v>1.3487937503590806</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1.6512062496409194</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="R16" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="4"/>
+        <v>1.0474684658391082</v>
+      </c>
+      <c r="X16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>4</v>
       </c>
@@ -4223,7 +7249,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.19419006992589782</v>
       </c>
       <c r="D17" s="1">
@@ -4235,11 +7261,18 @@
         <v>2.6685180557563553</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.33148194424364474</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="R17" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="4"/>
+        <v>1.1112882015866026</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>6</v>
       </c>
@@ -4247,7 +7280,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.19750488936833427</v>
       </c>
       <c r="D18" s="1">
@@ -4259,11 +7292,18 @@
         <v>3.9885525347324955</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.9885525347324955</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="R18" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="4"/>
+        <v>1.1751079373340969</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>5</v>
       </c>
@@ -4271,7 +7311,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.17761936402100931</v>
       </c>
       <c r="D19" s="1">
@@ -4283,11 +7323,18 @@
         <v>2.7402599747380614</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.2597400252619386</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="R19" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="4"/>
+        <v>1.238927673081591</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -4307,11 +7354,18 @@
         <v>0.82573188768013595</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.17426811231986405</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="R20" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="4"/>
+        <v>1.3027474088290854</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>3</v>
       </c>
@@ -4319,7 +7373,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.20195944539682734</v>
       </c>
       <c r="D21" s="1">
@@ -4331,11 +7385,18 @@
         <v>2.083732858985945</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.3732858985944958E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="R21" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="4"/>
+        <v>1.3665671445765797</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -4343,7 +7404,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.2011221168069679</v>
       </c>
       <c r="D22" s="1">
@@ -4355,11 +7416,18 @@
         <v>1.4506137543272231</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1.5493862456727769</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="R22" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="4"/>
+        <v>1.4303868803240738</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>4</v>
       </c>
@@ -4367,7 +7435,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.21661597926369566</v>
       </c>
       <c r="D23" s="1">
@@ -4379,11 +7447,18 @@
         <v>2.8395501539580281</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.16044984604197188</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="R23" s="1">
+        <v>2</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="4"/>
+        <v>1.4942066160715681</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>6</v>
       </c>
@@ -4391,7 +7466,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.21822047772411537</v>
       </c>
       <c r="D24" s="1">
@@ -4403,11 +7478,18 @@
         <v>4.1911297028156875</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.1911297028156875</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="R24" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="4"/>
+        <v>1.5580263518190625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>5</v>
       </c>
@@ -4415,7 +7497,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.19630918069595849</v>
       </c>
       <c r="D25" s="1">
@@ -4427,18 +7509,563 @@
         <v>2.8497279574275622</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.1502720425724378</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="R25" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="4"/>
+        <v>1.6218460875665568</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.21781190112168286</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="2"/>
         <v>0.63819735747494266</v>
+      </c>
+      <c r="R26" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="4"/>
+        <v>1.6856658233140509</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R27" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="4"/>
+        <v>1.7494855590615452</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R28" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="4"/>
+        <v>1.8133052948090396</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R29" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="4"/>
+        <v>1.8771250305565337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R30" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="4"/>
+        <v>1.940944766304028</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R31" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="4"/>
+        <v>2.0047645020515223</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R32" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="4"/>
+        <v>2.0685842377990165</v>
+      </c>
+    </row>
+    <row r="33" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R33" s="1">
+        <v>3</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="4"/>
+        <v>2.132403973546511</v>
+      </c>
+    </row>
+    <row r="34" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R34" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="4"/>
+        <v>2.1962237092940051</v>
+      </c>
+    </row>
+    <row r="35" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R35" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="4"/>
+        <v>2.2600434450414992</v>
+      </c>
+    </row>
+    <row r="36" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R36" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="4"/>
+        <v>2.3238631807889933</v>
+      </c>
+    </row>
+    <row r="37" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R37" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="4"/>
+        <v>2.3876829165364879</v>
+      </c>
+    </row>
+    <row r="38" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R38" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="4"/>
+        <v>2.451502652283982</v>
+      </c>
+    </row>
+    <row r="39" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R39" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="4"/>
+        <v>2.5153223880314766</v>
+      </c>
+    </row>
+    <row r="40" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R40" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="4"/>
+        <v>2.5791421237789707</v>
+      </c>
+    </row>
+    <row r="41" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R41" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="4"/>
+        <v>2.6429618595264648</v>
+      </c>
+    </row>
+    <row r="42" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R42" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="4"/>
+        <v>2.7067815952739593</v>
+      </c>
+    </row>
+    <row r="43" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R43" s="1">
+        <v>4</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="4"/>
+        <v>2.7706013310214535</v>
+      </c>
+    </row>
+    <row r="44" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R44" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="4"/>
+        <v>2.8344210667689476</v>
+      </c>
+    </row>
+    <row r="45" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R45" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="4"/>
+        <v>2.8982408025164421</v>
+      </c>
+    </row>
+    <row r="46" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R46" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="4"/>
+        <v>2.9620605382639362</v>
+      </c>
+    </row>
+    <row r="47" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R47" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="4"/>
+        <v>3.0258802740114308</v>
+      </c>
+    </row>
+    <row r="48" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R48" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="4"/>
+        <v>3.0897000097589249</v>
+      </c>
+    </row>
+    <row r="49" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R49" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="4"/>
+        <v>3.153519745506419</v>
+      </c>
+    </row>
+    <row r="50" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R50" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="4"/>
+        <v>3.2173394812539136</v>
+      </c>
+    </row>
+    <row r="51" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R51" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="4"/>
+        <v>3.2811592170014077</v>
+      </c>
+    </row>
+    <row r="52" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R52" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="4"/>
+        <v>3.3449789527489022</v>
+      </c>
+    </row>
+    <row r="53" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R53" s="1">
+        <v>5</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="4"/>
+        <v>3.4087986884963963</v>
+      </c>
+    </row>
+    <row r="54" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R54" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="4"/>
+        <v>3.47261842424389</v>
+      </c>
+    </row>
+    <row r="55" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R55" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="4"/>
+        <v>3.5364381599913846</v>
+      </c>
+    </row>
+    <row r="56" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R56" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="4"/>
+        <v>3.6002578957388787</v>
+      </c>
+    </row>
+    <row r="57" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R57" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="4"/>
+        <v>3.6640776314863732</v>
+      </c>
+    </row>
+    <row r="58" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R58" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="4"/>
+        <v>3.7278973672338673</v>
+      </c>
+    </row>
+    <row r="59" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R59" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="4"/>
+        <v>3.7917171029813614</v>
+      </c>
+    </row>
+    <row r="60" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R60" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="4"/>
+        <v>3.855536838728856</v>
+      </c>
+    </row>
+    <row r="61" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R61" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="4"/>
+        <v>3.9193565744763501</v>
+      </c>
+    </row>
+    <row r="62" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R62" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="4"/>
+        <v>3.9831763102238447</v>
+      </c>
+    </row>
+    <row r="63" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R63" s="1">
+        <v>6</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="4"/>
+        <v>4.0469960459713388</v>
+      </c>
+    </row>
+    <row r="64" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R64" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="4"/>
+        <v>4.1108157817188333</v>
+      </c>
+    </row>
+    <row r="65" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R65" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="4"/>
+        <v>4.1746355174663279</v>
+      </c>
+    </row>
+    <row r="66" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R66" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="4"/>
+        <v>4.2384552532138215</v>
+      </c>
+    </row>
+    <row r="67" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R67" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="S67">
+        <f t="shared" si="4"/>
+        <v>4.3022749889613161</v>
+      </c>
+    </row>
+    <row r="68" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R68" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="S68">
+        <f t="shared" ref="S68:S85" si="6">$C$26+$D$26*R68</f>
+        <v>4.3660947247088107</v>
+      </c>
+    </row>
+    <row r="69" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R69" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="S69">
+        <f t="shared" si="6"/>
+        <v>4.4299144604563043</v>
+      </c>
+    </row>
+    <row r="70" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R70" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="S70">
+        <f t="shared" si="6"/>
+        <v>4.4937341962037989</v>
+      </c>
+    </row>
+    <row r="71" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R71" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="6"/>
+        <v>4.5575539319512934</v>
+      </c>
+    </row>
+    <row r="72" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R72" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="6"/>
+        <v>4.621373667698788</v>
+      </c>
+    </row>
+    <row r="73" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R73" s="1">
+        <v>7</v>
+      </c>
+      <c r="S73">
+        <f t="shared" si="6"/>
+        <v>4.6851934034462817</v>
+      </c>
+    </row>
+    <row r="74" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R74" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="S74">
+        <f t="shared" si="6"/>
+        <v>4.7490131391937762</v>
+      </c>
+    </row>
+    <row r="75" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R75" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="S75">
+        <f t="shared" si="6"/>
+        <v>4.8128328749412708</v>
+      </c>
+    </row>
+    <row r="76" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R76" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="S76">
+        <f t="shared" si="6"/>
+        <v>4.8766526106887644</v>
+      </c>
+    </row>
+    <row r="77" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R77" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="S77">
+        <f t="shared" si="6"/>
+        <v>4.940472346436259</v>
+      </c>
+    </row>
+    <row r="78" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R78" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="S78">
+        <f t="shared" si="6"/>
+        <v>5.0042920821837535</v>
+      </c>
+    </row>
+    <row r="79" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R79" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="S79">
+        <f t="shared" si="6"/>
+        <v>5.0681118179312472</v>
+      </c>
+    </row>
+    <row r="80" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R80" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="S80">
+        <f t="shared" si="6"/>
+        <v>5.1319315536787418</v>
+      </c>
+    </row>
+    <row r="81" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R81" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="S81">
+        <f t="shared" si="6"/>
+        <v>5.1957512894262363</v>
+      </c>
+    </row>
+    <row r="82" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R82" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="S82">
+        <f t="shared" si="6"/>
+        <v>5.2595710251737309</v>
+      </c>
+    </row>
+    <row r="83" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R83" s="1">
+        <v>8</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="6"/>
+        <v>5.3233907609212245</v>
+      </c>
+    </row>
+    <row r="84" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R84" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="6"/>
+        <v>5.2595710251737309</v>
+      </c>
+    </row>
+    <row r="85" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R85" s="1">
+        <v>8</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="6"/>
+        <v>5.3233907609212245</v>
       </c>
     </row>
   </sheetData>
